--- a/Conceptual Design/aviones similares.xlsx
+++ b/Conceptual Design/aviones similares.xlsx
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>MEDIA</t>
-  </si>
-  <si>
-    <t>SEAGOD</t>
   </si>
   <si>
     <t>Cuerda media aerodinámica [m]</t>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Superficie cola vertical relativa [-]</t>
+  </si>
+  <si>
+    <t>AERONAVE DE DISEÑO</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
     <tableColumn id="4" name="Airfish 8"/>
     <tableColumn id="5" name="Aquaglide-5"/>
     <tableColumn id="6" name="MEDIA"/>
-    <tableColumn id="7" name="SEAGOD">
+    <tableColumn id="7" name="AERONAVE DE DISEÑO">
       <calculatedColumnFormula>AVERAGE(Table1[[#This Row],[Lippisch X-114]:[Aquaglide-5]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -819,7 +819,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -849,7 +849,7 @@
         <v>39</v>
       </c>
       <c r="G1" s="30" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" thickTop="1">
@@ -1010,7 +1010,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="18">
         <v>3.6</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="15">
         <v>5.3</v>
@@ -1036,7 +1036,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B12" s="15">
         <v>0.7</v>
@@ -1049,7 +1049,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B11</f>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="14" spans="1:7" ht="16">
       <c r="A14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14" s="15">
         <v>17.5</v>
@@ -1076,7 +1076,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15" s="15">
         <f>B8^2/B14</f>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16" s="15">
         <v>1.1000000000000001</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17" s="15">
         <v>3.8</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" s="15">
         <f>B17*B16/B14</f>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="15">
         <v>1.3</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20" s="15">
         <v>1.2</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="15">
         <f>B19*B20/B14</f>

--- a/Conceptual Design/aviones similares.xlsx
+++ b/Conceptual Design/aviones similares.xlsx
@@ -819,7 +819,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
